--- a/NUMBER-PERFECT/perfectNumber3 - Graph.xlsx
+++ b/NUMBER-PERFECT/perfectNumber3 - Graph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC23\Documents\numeroPerfecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC24\Documents\Analisis-Algoritmos\NUMBER-PERFECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{230BF5F3-BCB3-49D1-8B0D-D46BA47D4589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A399ADA3-CF2E-4F6C-97DA-3B340D98AA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68E2CB21-1BD0-40A9-B054-8CB2C0982EC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDEA302B-75D1-49EF-A9F7-4757D6074792}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,32 +36,32 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>T1</t>
+    <t>NUMBER</t>
   </si>
   <si>
-    <t>T2</t>
+    <t>SET 1</t>
   </si>
   <si>
-    <t>T3</t>
+    <t>SET 2</t>
   </si>
   <si>
-    <t>T4</t>
+    <t>SET 3</t>
   </si>
   <si>
-    <t>T5</t>
+    <t xml:space="preserve">SET 4 </t>
   </si>
   <si>
-    <t>PROMEDIO</t>
+    <t xml:space="preserve"> SET 5</t>
   </si>
   <si>
-    <t>VALOR</t>
+    <t>PROM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +69,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,8 +109,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,19 +160,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -162,21 +182,36 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PROM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$K$4:$K$13</c:f>
+              <c:f>Hoja1!$H$3:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -216,7 +251,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE8E-45D7-BF4E-1AB86CADCAFB}"/>
+              <c16:uniqueId val="{00000000-B000-4E27-B90A-FD8614C2FABA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -228,12 +263,33 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="998763696"/>
-        <c:axId val="998764176"/>
+        <c:axId val="828608928"/>
+        <c:axId val="828607968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="998763696"/>
+        <c:axId val="828608928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -244,12 +300,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="lt1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -260,22 +313,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="998764176"/>
+        <c:crossAx val="828607968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -283,26 +333,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="998764176"/>
+        <c:axId val="828607968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -321,20 +357,17 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="998763696"/>
+        <c:crossAx val="828608928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -359,14 +392,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="accent1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -379,7 +409,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -431,59 +461,53 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -495,22 +519,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -518,10 +538,7 @@
       </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -532,71 +549,87 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
           <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -605,10 +638,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -620,31 +653,30 @@
     </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -653,15 +685,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -672,37 +704,51 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
   <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:errorBar>
   <cs:floor>
@@ -710,28 +756,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -739,59 +780,62 @@
     </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -800,57 +844,67 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -859,28 +913,25 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -889,15 +940,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -905,13 +955,15 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -922,10 +974,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -934,14 +983,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -950,23 +993,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F94C7B4-6D87-0C8F-6530-58B3877A4EBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6414F57A-5625-9FEB-0517-B30357B7D6A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1283,310 +1326,281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2730E228-C0C6-43BC-976B-B560B7D06F78}">
-  <dimension ref="D3:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D278FF7-EE84-443E-8A00-5E477A1F425E}">
+  <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
+      <c r="C3">
+        <v>204000</v>
+      </c>
+      <c r="D3">
+        <v>172700</v>
+      </c>
+      <c r="E3">
+        <v>131000</v>
+      </c>
+      <c r="F3">
+        <v>109300</v>
+      </c>
+      <c r="G3">
+        <v>185600</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(C3:G3)</f>
+        <v>160520</v>
       </c>
     </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>204000</v>
-      </c>
-      <c r="G4">
-        <v>172700</v>
-      </c>
-      <c r="H4">
-        <v>131000</v>
-      </c>
-      <c r="I4">
-        <v>109300</v>
-      </c>
-      <c r="J4">
-        <v>185600</v>
-      </c>
-      <c r="K4">
-        <f>AVERAGE(F4:J4)</f>
-        <v>160520</v>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>106100</v>
+      </c>
+      <c r="D4" s="2">
+        <v>244100</v>
+      </c>
+      <c r="E4" s="2">
+        <v>167200</v>
+      </c>
+      <c r="F4" s="2">
+        <v>109200</v>
+      </c>
+      <c r="G4" s="2">
+        <v>106700</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H12" si="0">AVERAGE(C4:G4)</f>
+        <v>146660</v>
       </c>
     </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>175700</v>
+      </c>
       <c r="D5">
-        <v>2</v>
+        <v>213500</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>110900</v>
       </c>
       <c r="F5">
-        <v>106100</v>
+        <v>225800</v>
       </c>
       <c r="G5">
-        <v>244100</v>
+        <v>128500</v>
       </c>
       <c r="H5">
-        <v>167200</v>
-      </c>
-      <c r="I5">
-        <v>109200</v>
-      </c>
-      <c r="J5">
-        <v>106700</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ref="K5:K13" si="0">AVERAGE(F5:J5)</f>
-        <v>146660</v>
-      </c>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>175700</v>
-      </c>
-      <c r="G6">
-        <v>213500</v>
-      </c>
-      <c r="H6">
-        <v>110900</v>
-      </c>
-      <c r="I6">
-        <v>225800</v>
-      </c>
-      <c r="J6">
-        <v>128500</v>
-      </c>
-      <c r="K6">
         <f t="shared" si="0"/>
         <v>170880</v>
       </c>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
         <v>22</v>
       </c>
-      <c r="F7">
+      <c r="C6" s="2">
         <v>289800</v>
       </c>
-      <c r="G7">
+      <c r="D6" s="2">
         <v>585900</v>
       </c>
-      <c r="H7">
+      <c r="E6" s="2">
         <v>127000</v>
       </c>
-      <c r="I7">
+      <c r="F6" s="2">
         <v>225700</v>
       </c>
-      <c r="J7">
+      <c r="G6" s="2">
         <v>119100</v>
       </c>
-      <c r="K7">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>269500</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>34</v>
       </c>
-      <c r="F8">
+      <c r="C7">
         <v>108100</v>
       </c>
-      <c r="G8">
+      <c r="D7">
         <v>138400</v>
       </c>
-      <c r="H8">
+      <c r="E7">
         <v>152200</v>
       </c>
-      <c r="I8">
+      <c r="F7">
         <v>261500</v>
       </c>
-      <c r="J8">
+      <c r="G7">
         <v>141400</v>
       </c>
-      <c r="K8">
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>160320</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
         <v>47</v>
       </c>
-      <c r="F9">
+      <c r="C8" s="2">
         <v>200400</v>
       </c>
-      <c r="G9">
+      <c r="D8" s="2">
         <v>117300</v>
       </c>
-      <c r="H9">
+      <c r="E8" s="2">
         <v>151700</v>
       </c>
-      <c r="I9">
+      <c r="F8" s="2">
         <v>126700</v>
       </c>
-      <c r="J9">
+      <c r="G8" s="2">
         <v>119000</v>
       </c>
-      <c r="K9">
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>143020</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>50</v>
       </c>
-      <c r="F10">
+      <c r="C9">
         <v>96400</v>
       </c>
-      <c r="G10">
+      <c r="D9">
         <v>104800</v>
       </c>
-      <c r="H10">
+      <c r="E9">
         <v>101300</v>
       </c>
-      <c r="I10">
+      <c r="F9">
         <v>101200</v>
       </c>
-      <c r="J10">
+      <c r="G9">
         <v>104700</v>
       </c>
-      <c r="K10">
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>101680</v>
       </c>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
         <v>77</v>
       </c>
-      <c r="F11">
+      <c r="C10" s="2">
         <v>103300</v>
       </c>
-      <c r="G11">
+      <c r="D10" s="2">
         <v>99600</v>
       </c>
-      <c r="H11">
+      <c r="E10" s="2">
         <v>96900</v>
       </c>
-      <c r="I11">
+      <c r="F10" s="2">
         <v>102300</v>
       </c>
-      <c r="J11">
+      <c r="G10" s="2">
         <v>102200</v>
       </c>
-      <c r="K11">
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>100860</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="E12">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>87</v>
       </c>
-      <c r="F12">
+      <c r="C11">
         <v>102000</v>
       </c>
-      <c r="G12">
+      <c r="D11">
         <v>115400</v>
       </c>
-      <c r="H12">
+      <c r="E11">
         <v>106800</v>
       </c>
-      <c r="I12">
+      <c r="F11">
         <v>106600</v>
       </c>
-      <c r="J12">
+      <c r="G11">
         <v>103500</v>
       </c>
-      <c r="K12">
+      <c r="H11">
         <f t="shared" si="0"/>
         <v>106860</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
         <v>100</v>
       </c>
-      <c r="F13">
+      <c r="C12" s="2">
         <v>107000</v>
       </c>
-      <c r="G13">
+      <c r="D12" s="2">
         <v>100500</v>
       </c>
-      <c r="H13">
+      <c r="E12" s="2">
         <v>104000</v>
       </c>
-      <c r="I13">
+      <c r="F12" s="2">
         <v>102800</v>
       </c>
-      <c r="J13">
+      <c r="G12" s="2">
         <v>103100</v>
       </c>
-      <c r="K13">
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>103480</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/NUMBER-PERFECT/perfectNumber3 - Graph.xlsx
+++ b/NUMBER-PERFECT/perfectNumber3 - Graph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC24\Documents\Analisis-Algoritmos\NUMBER-PERFECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC23\Documents\numeroPerfecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A399ADA3-CF2E-4F6C-97DA-3B340D98AA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACA162F8-C41C-4F72-A1EC-98DC90738F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDEA302B-75D1-49EF-A9F7-4757D6074792}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68E2CB21-1BD0-40A9-B054-8CB2C0982EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,32 +36,32 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>NUMBER</t>
+    <t>T1</t>
   </si>
   <si>
-    <t>SET 1</t>
+    <t>T2</t>
   </si>
   <si>
-    <t>SET 2</t>
+    <t>T3</t>
   </si>
   <si>
-    <t>SET 3</t>
+    <t>T4</t>
   </si>
   <si>
-    <t xml:space="preserve">SET 4 </t>
+    <t>T5</t>
   </si>
   <si>
-    <t xml:space="preserve"> SET 5</t>
+    <t>PROMEDIO</t>
   </si>
   <si>
-    <t>PROM</t>
+    <t>VALOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,32 +69,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,12 +90,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -160,16 +137,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -182,68 +162,53 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PROM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent1"/>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$3:$H$12</c:f>
+              <c:f>Hoja1!$K$4:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>160520</c:v>
+                  <c:v>114340.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146660</c:v>
+                  <c:v>117840.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>170880</c:v>
+                  <c:v>134419.79999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>269500</c:v>
+                  <c:v>126220</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160320</c:v>
+                  <c:v>115320</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>143020</c:v>
+                  <c:v>150360</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101680</c:v>
+                  <c:v>145520</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100860</c:v>
+                  <c:v>157220</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>106860</c:v>
+                  <c:v>173660</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103480</c:v>
+                  <c:v>120800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -251,7 +216,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B000-4E27-B90A-FD8614C2FABA}"/>
+              <c16:uniqueId val="{00000000-FE8E-45D7-BF4E-1AB86CADCAFB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -263,33 +228,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1"/>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="lt1">
-                      <a:alpha val="0"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="828608928"/>
-        <c:axId val="828607968"/>
+        <c:axId val="998763696"/>
+        <c:axId val="998764176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="828608928"/>
+        <c:axId val="998763696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -300,9 +244,12 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -313,19 +260,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="828607968"/>
+        <c:crossAx val="998764176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -333,12 +283,26 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="828607968"/>
+        <c:axId val="998764176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -357,17 +321,20 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="828608928"/>
+        <c:crossAx val="998763696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -392,11 +359,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="accent1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -409,7 +379,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -461,53 +431,59 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -519,18 +495,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -538,7 +518,10 @@
       </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -549,87 +532,71 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-          <a:schemeClr val="phClr"/>
-        </a:outerShdw>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="22225">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -638,10 +605,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -653,30 +620,31 @@
     </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -685,15 +653,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="35000"/>
-          <a:lumOff val="65000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -704,51 +672,37 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:alpha val="0"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
   <cs:errorBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="25400">
-          <a:schemeClr val="lt1"/>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:errorBar>
   <cs:floor>
@@ -756,23 +710,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -780,62 +739,59 @@
     </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="10000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -844,67 +800,57 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:tint val="50000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -913,25 +859,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -940,14 +889,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -955,15 +905,13 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -974,7 +922,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -983,8 +934,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -993,23 +950,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6414F57A-5625-9FEB-0517-B30357B7D6A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F94C7B4-6D87-0C8F-6530-58B3877A4EBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,281 +1283,310 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D278FF7-EE84-443E-8A00-5E477A1F425E}">
-  <dimension ref="B2:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2730E228-C0C6-43BC-976B-B560B7D06F78}">
+  <dimension ref="D3:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>98700</v>
+      </c>
+      <c r="G4">
+        <v>133400</v>
+      </c>
+      <c r="H4">
+        <v>136201</v>
+      </c>
+      <c r="I4">
+        <v>98900</v>
+      </c>
+      <c r="J4">
+        <v>104500</v>
+      </c>
+      <c r="K4">
+        <f>AVERAGE(F4:J4)</f>
+        <v>114340.2</v>
+      </c>
+    </row>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>6</v>
       </c>
+      <c r="F5">
+        <v>101400</v>
+      </c>
+      <c r="G5">
+        <v>121901</v>
+      </c>
+      <c r="H5">
+        <v>115900</v>
+      </c>
+      <c r="I5">
+        <v>148600</v>
+      </c>
+      <c r="J5">
+        <v>101400</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K13" si="0">AVERAGE(F5:J5)</f>
+        <v>117840.2</v>
+      </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>204000</v>
-      </c>
-      <c r="D3">
-        <v>172700</v>
-      </c>
-      <c r="E3">
-        <v>131000</v>
-      </c>
-      <c r="F3">
-        <v>109300</v>
-      </c>
-      <c r="G3">
-        <v>185600</v>
-      </c>
-      <c r="H3">
-        <f>AVERAGE(C3:G3)</f>
-        <v>160520</v>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>129499</v>
+      </c>
+      <c r="G6">
+        <v>133900</v>
+      </c>
+      <c r="H6">
+        <v>141199</v>
+      </c>
+      <c r="I6">
+        <v>157301</v>
+      </c>
+      <c r="J6">
+        <v>110200</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>134419.79999999999</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>110900</v>
+      </c>
+      <c r="G7">
+        <v>153801</v>
+      </c>
+      <c r="H7">
+        <v>134600</v>
+      </c>
+      <c r="I7">
+        <v>103200</v>
+      </c>
+      <c r="J7">
+        <v>128599</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>126220</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>121800</v>
+      </c>
+      <c r="G8">
+        <v>105900</v>
+      </c>
+      <c r="H8">
+        <v>109200</v>
+      </c>
+      <c r="I8">
+        <v>105500</v>
+      </c>
+      <c r="J8">
+        <v>134200</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>115320</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>67</v>
+      </c>
+      <c r="F9">
+        <v>204100</v>
+      </c>
+      <c r="G9">
+        <v>103900</v>
+      </c>
+      <c r="H9">
+        <v>142700</v>
+      </c>
+      <c r="I9">
+        <v>120500</v>
+      </c>
+      <c r="J9">
+        <v>180600</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>150360</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>76</v>
+      </c>
+      <c r="F10">
+        <v>120900</v>
+      </c>
+      <c r="G10">
+        <v>195100</v>
+      </c>
+      <c r="H10">
+        <v>141000</v>
+      </c>
+      <c r="I10">
+        <v>139000</v>
+      </c>
+      <c r="J10">
+        <v>131600</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>145520</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D11">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
-        <v>106100</v>
-      </c>
-      <c r="D4" s="2">
-        <v>244100</v>
-      </c>
-      <c r="E4" s="2">
-        <v>167200</v>
-      </c>
-      <c r="F4" s="2">
-        <v>109200</v>
-      </c>
-      <c r="G4" s="2">
-        <v>106700</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" ref="H4:H12" si="0">AVERAGE(C4:G4)</f>
-        <v>146660</v>
+      <c r="E11">
+        <v>81</v>
+      </c>
+      <c r="F11">
+        <v>162400</v>
+      </c>
+      <c r="G11">
+        <v>194100</v>
+      </c>
+      <c r="H11">
+        <v>181400</v>
+      </c>
+      <c r="I11">
+        <v>144200</v>
+      </c>
+      <c r="J11">
+        <v>104000</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>157220</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>175700</v>
-      </c>
-      <c r="D5">
-        <v>213500</v>
-      </c>
-      <c r="E5">
-        <v>110900</v>
-      </c>
-      <c r="F5">
-        <v>225800</v>
-      </c>
-      <c r="G5">
-        <v>128500</v>
-      </c>
-      <c r="H5">
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>99</v>
+      </c>
+      <c r="F12">
+        <v>214000</v>
+      </c>
+      <c r="G12">
+        <v>182400</v>
+      </c>
+      <c r="H12">
+        <v>125900</v>
+      </c>
+      <c r="I12">
+        <v>178000</v>
+      </c>
+      <c r="J12">
+        <v>168000</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="0"/>
-        <v>170880</v>
+        <v>173660</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2">
-        <v>289800</v>
-      </c>
-      <c r="D6" s="2">
-        <v>585900</v>
-      </c>
-      <c r="E6" s="2">
-        <v>127000</v>
-      </c>
-      <c r="F6" s="2">
-        <v>225700</v>
-      </c>
-      <c r="G6" s="2">
-        <v>119100</v>
-      </c>
-      <c r="H6" s="2">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>101</v>
+      </c>
+      <c r="F13">
+        <v>105800</v>
+      </c>
+      <c r="G13">
+        <v>110000</v>
+      </c>
+      <c r="H13">
+        <v>141000</v>
+      </c>
+      <c r="I13">
+        <v>124800</v>
+      </c>
+      <c r="J13">
+        <v>122400</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="0"/>
-        <v>269500</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>34</v>
-      </c>
-      <c r="C7">
-        <v>108100</v>
-      </c>
-      <c r="D7">
-        <v>138400</v>
-      </c>
-      <c r="E7">
-        <v>152200</v>
-      </c>
-      <c r="F7">
-        <v>261500</v>
-      </c>
-      <c r="G7">
-        <v>141400</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>160320</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>47</v>
-      </c>
-      <c r="C8" s="2">
-        <v>200400</v>
-      </c>
-      <c r="D8" s="2">
-        <v>117300</v>
-      </c>
-      <c r="E8" s="2">
-        <v>151700</v>
-      </c>
-      <c r="F8" s="2">
-        <v>126700</v>
-      </c>
-      <c r="G8" s="2">
-        <v>119000</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>143020</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>96400</v>
-      </c>
-      <c r="D9">
-        <v>104800</v>
-      </c>
-      <c r="E9">
-        <v>101300</v>
-      </c>
-      <c r="F9">
-        <v>101200</v>
-      </c>
-      <c r="G9">
-        <v>104700</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>101680</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>77</v>
-      </c>
-      <c r="C10" s="2">
-        <v>103300</v>
-      </c>
-      <c r="D10" s="2">
-        <v>99600</v>
-      </c>
-      <c r="E10" s="2">
-        <v>96900</v>
-      </c>
-      <c r="F10" s="2">
-        <v>102300</v>
-      </c>
-      <c r="G10" s="2">
-        <v>102200</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="0"/>
-        <v>100860</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>87</v>
-      </c>
-      <c r="C11">
-        <v>102000</v>
-      </c>
-      <c r="D11">
-        <v>115400</v>
-      </c>
-      <c r="E11">
-        <v>106800</v>
-      </c>
-      <c r="F11">
-        <v>106600</v>
-      </c>
-      <c r="G11">
-        <v>103500</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>106860</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>100</v>
-      </c>
-      <c r="C12" s="2">
-        <v>107000</v>
-      </c>
-      <c r="D12" s="2">
-        <v>100500</v>
-      </c>
-      <c r="E12" s="2">
-        <v>104000</v>
-      </c>
-      <c r="F12" s="2">
-        <v>102800</v>
-      </c>
-      <c r="G12" s="2">
-        <v>103100</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="0"/>
-        <v>103480</v>
+        <v>120800</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>